--- a/事件研究_平行趋势检验结果.xlsx
+++ b/事件研究_平行趋势检验结果.xlsx
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.001923244147058669</v>
+        <v>-0.001368844122222731</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04629793783448252</v>
+        <v>0.04753860046202624</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04154060066205032</v>
+        <v>-0.02879437149850806</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9668679340739017</v>
+        <v>0.9770307038803834</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.08882071400852706</v>
+        <v>-0.09454450102779414</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09266720230264441</v>
+        <v>0.09180681278334869</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
@@ -534,22 +534,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.01010408486784556</v>
+        <v>-0.005108385660693202</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03211968748333174</v>
+        <v>0.03332914192935848</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3145760640756232</v>
+        <v>-0.1532708424213407</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7531073587150796</v>
+        <v>0.8781960710041736</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.07305867233517577</v>
+        <v>-0.07043350384223582</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05285050259948465</v>
+        <v>0.06021673252084941</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -568,26 +568,26 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.04429235310894791</v>
+        <v>-0.05990535617960974</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02675534055733667</v>
+        <v>0.02783971199299977</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.655458393961738</v>
+        <v>-2.151795111769576</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09794535971872831</v>
+        <v>0.03150132862582344</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.09673282060132778</v>
+        <v>-0.1144711916858893</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008148114383431965</v>
+        <v>-0.005339520673330191</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -606,22 +606,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.01403717699753595</v>
+        <v>-0.01744856034482041</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01565818648055414</v>
+        <v>0.01629785451482956</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8964752728528737</v>
+        <v>-1.070604743031901</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3700772495495599</v>
+        <v>0.2844422491512688</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04472722249942206</v>
+        <v>-0.04939235519388635</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01665286850435016</v>
+        <v>0.01449523450424553</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
@@ -674,22 +674,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.002798541720778259</v>
+        <v>-0.01465799438367035</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01134921034341666</v>
+        <v>0.01191238916555551</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2465847081952806</v>
+        <v>-1.23048317008092</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8052479980607683</v>
+        <v>0.2186227044640374</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02504299399387492</v>
+        <v>-0.03800627714815914</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0194459105523184</v>
+        <v>0.008690288380818444</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
@@ -708,22 +708,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.006853138602875591</v>
+        <v>-0.002259670361465111</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01762593326345683</v>
+        <v>0.0180400021528455</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3888099711056968</v>
+        <v>-0.1252588742684095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6974467484644182</v>
+        <v>0.9003278727300974</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0276936905934998</v>
+        <v>-0.0376180745810423</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04139996779925098</v>
+        <v>0.03309873385811207</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0360518096505138</v>
+        <v>0.02723364902570055</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02266294081933602</v>
+        <v>0.02282674303673263</v>
       </c>
       <c r="F9" t="n">
-        <v>1.590782499849023</v>
+        <v>1.193058903842583</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1117731812946905</v>
+        <v>0.2329504376623222</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.00836755435538479</v>
+        <v>-0.01750676732629541</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08047117365641239</v>
+        <v>0.07197406537769652</v>
       </c>
       <c r="J9" t="inlineStr"/>
     </row>
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.02964873499459999</v>
+        <v>0.02369062793671469</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02349743478083216</v>
+        <v>0.0245753719337353</v>
       </c>
       <c r="F10" t="n">
-        <v>1.261786032013405</v>
+        <v>0.963998754549627</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2071325275037241</v>
+        <v>0.3351323079475659</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.01640623717583104</v>
+        <v>-0.0244771010534065</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07570370716503103</v>
+        <v>0.07185835692683587</v>
       </c>
       <c r="J10" t="inlineStr"/>
     </row>
@@ -810,22 +810,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.01887625962226841</v>
+        <v>0.005717451143604203</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02711832483554823</v>
+        <v>0.02776009823010392</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6960702674939695</v>
+        <v>0.2059593268082899</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4864434987677844</v>
+        <v>0.8368381075376876</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.03427565705540611</v>
+        <v>-0.04869234138739948</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07202817629994294</v>
+        <v>0.06012724367460789</v>
       </c>
       <c r="J11" t="inlineStr"/>
     </row>
@@ -844,28 +844,24 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.05959062692009761</v>
+        <v>0.04567381451318967</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03417222025326415</v>
+        <v>0.03654167614995177</v>
       </c>
       <c r="F12" t="n">
-        <v>1.74383246035661</v>
+        <v>1.249910221024439</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08129976351982027</v>
+        <v>0.2114399542900685</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.007386924776300118</v>
+        <v>-0.0259478707407158</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1265681786164953</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1172954997670951</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
